--- a/ukf_chatbot_real_nested.xlsx
+++ b/ukf_chatbot_real_nested.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\UKF-main\UKF-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101DA425-D6EE-4609-AE78-CAEA58550C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="113">
   <si>
     <t>Category</t>
   </si>
@@ -67,24 +73,6 @@
     <t>Road Freight</t>
   </si>
   <si>
-    <t>EXW</t>
-  </si>
-  <si>
-    <t>FOB</t>
-  </si>
-  <si>
-    <t>CIF</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>Middle East</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
@@ -101,15 +89,6 @@
   </si>
   <si>
     <t>Suggestions</t>
-  </si>
-  <si>
-    <t>Reliability</t>
-  </si>
-  <si>
-    <t>Global Reach</t>
-  </si>
-  <si>
-    <t>Expertise</t>
   </si>
   <si>
     <t>When was UKF Services established?</t>
@@ -385,8 +364,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,13 +428,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -493,7 +480,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -527,6 +514,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -561,9 +549,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -736,14 +725,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -768,16 +766,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -785,16 +783,16 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -802,16 +800,16 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -819,16 +817,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -836,16 +834,16 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -853,421 +851,421 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D25" t="s">
         <v>67</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
         <v>44</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D26" t="s">
         <v>74</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E26" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D27" t="s">
         <v>75</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
         <v>46</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D28" t="s">
         <v>76</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D29" t="s">
         <v>77</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
         <v>48</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D30" t="s">
         <v>78</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
         <v>49</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D31" t="s">
         <v>79</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E31" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/ukf_chatbot_real_nested.xlsx
+++ b/ukf_chatbot_real_nested.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\UKF-main\UKF-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B_Tech_CSE_Sem-6\UKF\UKF-main_update_9\UKF-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101DA425-D6EE-4609-AE78-CAEA58550C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBBAB9B-E5C6-4044-8A30-EB90E0C8C43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -250,12 +250,6 @@
     <t>You can email us at info@ukfservices.com.</t>
   </si>
   <si>
-    <t>We are located at Entrance no:4 First Floor Office no 2056-A, Dubai Cargo Village, UAE.</t>
-  </si>
-  <si>
-    <t>You can provide feedback via our website form or email feedback@ukfservices.com.</t>
-  </si>
-  <si>
     <t>Yes, you may submit feedback anonymously or with your contact details.</t>
   </si>
   <si>
@@ -359,6 +353,12 @@
   </si>
   <si>
     <t>why choose us, expertise</t>
+  </si>
+  <si>
+    <t>We are located at Entrance no:4 First Floor Office no 2056-A, Dubai Cargo Village, DUBAI.</t>
+  </si>
+  <si>
+    <t>You can provide feedback via our website form or email info@ukfservices.com.</t>
   </si>
 </sst>
 </file>
@@ -728,20 +728,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -772,10 +772,10 @@
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -789,10 +789,10 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -806,10 +806,10 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -823,10 +823,10 @@
         <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -840,10 +840,10 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -857,10 +857,10 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -874,10 +874,10 @@
         <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -891,10 +891,10 @@
         <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -908,10 +908,10 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -922,13 +922,13 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -939,13 +939,13 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -956,13 +956,13 @@
         <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -976,10 +976,10 @@
         <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -993,10 +993,10 @@
         <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1010,10 +1010,10 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1027,10 +1027,10 @@
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1044,10 +1044,10 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1061,10 +1061,10 @@
         <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1095,10 +1095,10 @@
         <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1112,10 +1112,10 @@
         <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1129,10 +1129,10 @@
         <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1146,10 +1146,10 @@
         <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1163,10 +1163,10 @@
         <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1180,10 +1180,10 @@
         <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1197,10 +1197,10 @@
         <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1211,13 +1211,13 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1228,13 +1228,13 @@
         <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1245,13 +1245,13 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1262,10 +1262,10 @@
         <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
